--- a/survey_shiny/bb4FAIR_app/survey_risposte_completo.xlsx
+++ b/survey_shiny/bb4FAIR_app/survey_risposte_completo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federica/Documents/GitHub/BB4FAIR/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federica/Documents/GitHub/BB4FAIR/survey_shiny/bb4FAIR_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25155B8A-7F92-9046-B61D-E2D80A6B4BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC9EA6A-7348-AD49-B1A9-B146422102AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5260" yWindow="-21600" windowWidth="19160" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-580" yWindow="-21100" windowWidth="19160" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1482,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2737,7 +2737,7 @@
         <v>46</v>
       </c>
       <c r="T12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U12" t="s">
         <v>78</v>
@@ -4669,7 +4669,7 @@
         <v>46</v>
       </c>
       <c r="T30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U30" t="s">
         <v>296</v>
@@ -4782,7 +4782,7 @@
         <v>46</v>
       </c>
       <c r="T31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U31" t="s">
         <v>298</v>
